--- a/80_共通方式/ジェネレーター作成手順.xlsx
+++ b/80_共通方式/ジェネレーター作成手順.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkntm\OneDrive\Desktop\技術研修\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkntm\Documents\GitHub\scheduleOnline\80_共通方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1277AD20-04C1-4D10-922A-A4950776CA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF945E1-FAAB-4AF0-B830-B6272AB8724C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="37695" windowHeight="21840" xr2:uid="{20EA7B01-CC14-4AB9-908B-87D660FEAAD5}"/>
   </bookViews>
@@ -3204,9 +3204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505DADA0-72C9-49CE-8672-031D75C7263C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A479" sqref="A479"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
